--- a/demo/TestResults.xlsx
+++ b/demo/TestResults.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Rank Schema" r:id="rId6" sheetId="4"/>
     <sheet name="RAW" r:id="rId7" sheetId="5"/>
     <sheet name="AREA" r:id="rId8" sheetId="6"/>
+    <sheet name="Student Ranks" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="207">
   <si>
     <t>SCIENCE</t>
   </si>
@@ -613,31 +614,31 @@
     <t>0</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CHE2501</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>CHE2501</t>
+    <t>ESL1301</t>
+  </si>
+  <si>
+    <t>ESL1302</t>
+  </si>
+  <si>
+    <t>ESL1303</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>MATH3243</t>
+  </si>
+  <si>
     <t>ECE4323</t>
-  </si>
-  <si>
-    <t>ESL1301</t>
-  </si>
-  <si>
-    <t>ESL1302</t>
-  </si>
-  <si>
-    <t>ESL1303</t>
-  </si>
-  <si>
-    <t>MATH3243</t>
   </si>
 </sst>
 </file>
@@ -1648,13 +1649,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="C2" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="D2" t="n">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1691,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>197</v>
@@ -1710,7 +1711,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
         <v>197</v>
@@ -1722,15 +1723,15 @@
         <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>197</v>
@@ -1745,12 +1746,12 @@
         <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>197</v>
@@ -1762,35 +1763,35 @@
         <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" t="s">
         <v>200</v>
       </c>
-      <c r="B6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" t="s">
-        <v>197</v>
-      </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>197</v>
@@ -1805,12 +1806,12 @@
         <v>197</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>197</v>
@@ -1830,7 +1831,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>197</v>
@@ -1842,7 +1843,7 @@
         <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
         <v>197</v>
@@ -1850,7 +1851,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>197</v>
@@ -1862,15 +1863,15 @@
         <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>197</v>
@@ -1885,12 +1886,12 @@
         <v>197</v>
       </c>
       <c r="F11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
         <v>197</v>
@@ -1902,7 +1903,7 @@
         <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
         <v>197</v>
@@ -1910,7 +1911,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
         <v>197</v>
@@ -1922,35 +1923,35 @@
         <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
         <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>197</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>197</v>
@@ -1965,12 +1966,12 @@
         <v>197</v>
       </c>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>197</v>
@@ -1985,12 +1986,12 @@
         <v>197</v>
       </c>
       <c r="F16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>197</v>
@@ -1999,18 +2000,18 @@
         <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E17" t="s">
         <v>197</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
         <v>197</v>
@@ -2025,12 +2026,12 @@
         <v>197</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>197</v>
@@ -2042,15 +2043,15 @@
         <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
         <v>197</v>
@@ -2062,15 +2063,15 @@
         <v>197</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>197</v>
@@ -2082,7 +2083,7 @@
         <v>197</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F21" t="s">
         <v>197</v>
@@ -2090,7 +2091,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>197</v>
@@ -2105,12 +2106,12 @@
         <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>197</v>
@@ -2122,7 +2123,7 @@
         <v>197</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F23" t="s">
         <v>197</v>
@@ -2130,7 +2131,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
         <v>197</v>
@@ -2142,7 +2143,7 @@
         <v>197</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F24" t="s">
         <v>197</v>
@@ -2150,7 +2151,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
         <v>197</v>
@@ -2162,15 +2163,15 @@
         <v>197</v>
       </c>
       <c r="E25" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
         <v>197</v>
@@ -2185,12 +2186,12 @@
         <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>197</v>
@@ -2205,12 +2206,12 @@
         <v>197</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
         <v>197</v>
@@ -2225,12 +2226,12 @@
         <v>197</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>197</v>
@@ -2242,55 +2243,55 @@
         <v>197</v>
       </c>
       <c r="E29" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
         <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s">
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" t="s">
         <v>204</v>
-      </c>
-      <c r="B31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" t="s">
-        <v>197</v>
-      </c>
-      <c r="F31" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>197</v>
@@ -2302,15 +2303,15 @@
         <v>197</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>197</v>
@@ -2319,18 +2320,18 @@
         <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E33" t="s">
         <v>197</v>
       </c>
       <c r="F33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
         <v>197</v>
@@ -2345,12 +2346,12 @@
         <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>197</v>
@@ -2362,15 +2363,15 @@
         <v>197</v>
       </c>
       <c r="E35" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
         <v>197</v>
@@ -2382,7 +2383,7 @@
         <v>197</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F36" t="s">
         <v>197</v>
@@ -2390,7 +2391,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>197</v>
@@ -2402,7 +2403,7 @@
         <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
         <v>197</v>
@@ -2410,7 +2411,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
         <v>197</v>
@@ -2425,7 +2426,7 @@
         <v>197</v>
       </c>
       <c r="F38" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39">
@@ -2445,12 +2446,12 @@
         <v>197</v>
       </c>
       <c r="F39" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
         <v>197</v>
@@ -2465,12 +2466,12 @@
         <v>197</v>
       </c>
       <c r="F40" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
         <v>197</v>
@@ -2485,7 +2486,7 @@
         <v>197</v>
       </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2530,7 +2531,7 @@
         <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
@@ -2544,10 +2545,10 @@
         <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -2561,10 +2562,10 @@
         <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -2578,10 +2579,10 @@
         <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -2598,7 +2599,7 @@
         <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
@@ -2615,7 +2616,7 @@
         <v>197</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -2629,7 +2630,7 @@
         <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
         <v>197</v>
@@ -2649,7 +2650,48 @@
         <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/demo/TestResults.xlsx
+++ b/demo/TestResults.xlsx
@@ -614,13 +614,19 @@
     <t>0</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>CHE2501</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ECE4323</t>
   </si>
   <si>
     <t>ESL1301</t>
@@ -632,13 +638,7 @@
     <t>ESL1303</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>MATH3243</t>
-  </si>
-  <si>
-    <t>ECE4323</t>
   </si>
 </sst>
 </file>
@@ -1649,13 +1649,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="D2" t="n">
-        <v>120.0</v>
+        <v>90.0</v>
       </c>
     </row>
   </sheetData>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>197</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>197</v>
@@ -1723,15 +1723,15 @@
         <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>197</v>
@@ -1746,12 +1746,12 @@
         <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>197</v>
@@ -1763,15 +1763,15 @@
         <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
         <v>197</v>
@@ -1783,15 +1783,15 @@
         <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>197</v>
@@ -1806,12 +1806,12 @@
         <v>197</v>
       </c>
       <c r="F7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>197</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>197</v>
@@ -1843,7 +1843,7 @@
         <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F9" t="s">
         <v>197</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>197</v>
@@ -1863,15 +1863,15 @@
         <v>197</v>
       </c>
       <c r="E10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>197</v>
@@ -1886,12 +1886,12 @@
         <v>197</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>197</v>
@@ -1903,7 +1903,7 @@
         <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F12" t="s">
         <v>197</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>197</v>
@@ -1923,35 +1923,35 @@
         <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D14" t="s">
         <v>197</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>197</v>
@@ -1966,12 +1966,12 @@
         <v>197</v>
       </c>
       <c r="F15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>197</v>
@@ -1986,12 +1986,12 @@
         <v>197</v>
       </c>
       <c r="F16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>197</v>
@@ -2000,18 +2000,18 @@
         <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E17" t="s">
         <v>197</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>197</v>
@@ -2026,12 +2026,12 @@
         <v>197</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>197</v>
@@ -2043,15 +2043,15 @@
         <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
         <v>197</v>
@@ -2063,15 +2063,15 @@
         <v>197</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>197</v>
@@ -2083,7 +2083,7 @@
         <v>197</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F21" t="s">
         <v>197</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
         <v>197</v>
@@ -2106,12 +2106,12 @@
         <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>197</v>
@@ -2123,7 +2123,7 @@
         <v>197</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
         <v>197</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>197</v>
@@ -2143,7 +2143,7 @@
         <v>197</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F24" t="s">
         <v>197</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>197</v>
@@ -2163,15 +2163,15 @@
         <v>197</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
         <v>197</v>
@@ -2186,12 +2186,12 @@
         <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s">
         <v>197</v>
@@ -2206,12 +2206,12 @@
         <v>197</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
         <v>197</v>
@@ -2226,12 +2226,12 @@
         <v>197</v>
       </c>
       <c r="F28" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
         <v>197</v>
@@ -2243,35 +2243,35 @@
         <v>197</v>
       </c>
       <c r="E29" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
         <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D30" t="s">
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s">
         <v>197</v>
@@ -2286,12 +2286,12 @@
         <v>197</v>
       </c>
       <c r="F31" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
         <v>197</v>
@@ -2303,15 +2303,15 @@
         <v>197</v>
       </c>
       <c r="E32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
         <v>197</v>
@@ -2320,18 +2320,18 @@
         <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E33" t="s">
         <v>197</v>
       </c>
       <c r="F33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>197</v>
@@ -2346,12 +2346,12 @@
         <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
         <v>197</v>
@@ -2363,15 +2363,15 @@
         <v>197</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
         <v>197</v>
@@ -2383,7 +2383,7 @@
         <v>197</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F36" t="s">
         <v>197</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>197</v>
@@ -2403,7 +2403,7 @@
         <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
         <v>197</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>197</v>
@@ -2426,7 +2426,7 @@
         <v>197</v>
       </c>
       <c r="F38" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39">
@@ -2446,12 +2446,12 @@
         <v>197</v>
       </c>
       <c r="F39" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
         <v>197</v>
@@ -2466,12 +2466,12 @@
         <v>197</v>
       </c>
       <c r="F40" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
         <v>197</v>
@@ -2486,7 +2486,7 @@
         <v>197</v>
       </c>
       <c r="F41" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +2531,7 @@
         <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
@@ -2545,10 +2545,10 @@
         <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4">
@@ -2562,10 +2562,10 @@
         <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5">
@@ -2579,10 +2579,10 @@
         <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
@@ -2599,7 +2599,7 @@
         <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7">
@@ -2616,7 +2616,7 @@
         <v>197</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
@@ -2630,7 +2630,7 @@
         <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E8" t="s">
         <v>197</v>
@@ -2650,7 +2650,7 @@
         <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2685,10 +2685,10 @@
         <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
         <v>197</v>

--- a/demo/TestResults.xlsx
+++ b/demo/TestResults.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="208">
   <si>
     <t>SCIENCE</t>
   </si>
   <si>
+    <t>UNSORTED</t>
+  </si>
+  <si>
     <t>SPECIALIZED</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t>BIOL2615</t>
   </si>
   <si>
+    <t>CHE2501</t>
+  </si>
+  <si>
     <t>ECE3821</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
     <t>BIOL2053</t>
   </si>
   <si>
+    <t>ECE4633</t>
+  </si>
+  <si>
     <t>ECE2213</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
     <t>GEOL1044</t>
   </si>
   <si>
+    <t>ECE3832</t>
+  </si>
+  <si>
     <t>ECE3031</t>
   </si>
   <si>
@@ -107,6 +119,9 @@
     <t>BIOL1001</t>
   </si>
   <si>
+    <t>ECE4273</t>
+  </si>
+  <si>
     <t>ECE2412</t>
   </si>
   <si>
@@ -122,6 +137,9 @@
     <t>BIOL1017</t>
   </si>
   <si>
+    <t>ECE4323</t>
+  </si>
+  <si>
     <t>ECE1813</t>
   </si>
   <si>
@@ -143,6 +161,9 @@
     <t>BIOL1012</t>
   </si>
   <si>
+    <t>MATH3243</t>
+  </si>
+  <si>
     <t>ECE3232</t>
   </si>
   <si>
@@ -158,6 +179,9 @@
     <t>BIOL1622</t>
   </si>
   <si>
+    <t>ECE4823</t>
+  </si>
+  <si>
     <t>ECE2711</t>
   </si>
   <si>
@@ -170,6 +194,9 @@
     <t>BIOL1621</t>
   </si>
   <si>
+    <t>ESL1302</t>
+  </si>
+  <si>
     <t>ECE2722</t>
   </si>
   <si>
@@ -182,6 +209,9 @@
     <t>GEOL1063</t>
   </si>
   <si>
+    <t>ESL1303</t>
+  </si>
+  <si>
     <t>ECE3221</t>
   </si>
   <si>
@@ -191,6 +221,9 @@
     <t>CHEM1072</t>
   </si>
   <si>
+    <t>ESL1301</t>
+  </si>
+  <si>
     <t>ADM2213</t>
   </si>
   <si>
@@ -398,9 +431,6 @@
     <t>ECE4643</t>
   </si>
   <si>
-    <t>ECE3832</t>
-  </si>
-  <si>
     <t>ECECOOP</t>
   </si>
   <si>
@@ -416,9 +446,6 @@
     <t>ECE4133</t>
   </si>
   <si>
-    <t>ECE4633</t>
-  </si>
-  <si>
     <t>ECE4913</t>
   </si>
   <si>
@@ -431,15 +458,9 @@
     <t>ECE4251</t>
   </si>
   <si>
-    <t>ECE4273</t>
-  </si>
-  <si>
     <t>ECE3812</t>
   </si>
   <si>
-    <t>ECE4823</t>
-  </si>
-  <si>
     <t>EE3511</t>
   </si>
   <si>
@@ -608,7 +629,7 @@
     <t>Senior</t>
   </si>
   <si>
-    <t>other</t>
+    <t>Other</t>
   </si>
   <si>
     <t>0</t>
@@ -620,25 +641,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>CHE2501</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>ECE4323</t>
-  </si>
-  <si>
-    <t>ESL1301</t>
-  </si>
-  <si>
-    <t>ESL1302</t>
-  </si>
-  <si>
-    <t>ESL1303</t>
-  </si>
-  <si>
-    <t>MATH3243</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -714,611 +717,644 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>90</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
         <v>92</v>
       </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" t="s">
-        <v>93</v>
+      <c r="F27" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28">
-      <c r="D28" t="s">
-        <v>83</v>
-      </c>
       <c r="E28" t="s">
         <v>94</v>
       </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="29">
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
       <c r="E30" t="s">
         <v>96</v>
       </c>
+      <c r="F30" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>45</v>
+      </c>
+      <c r="F31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" t="s">
         <v>44</v>
       </c>
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
-        <v>111</v>
+      <c r="F49" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
-        <v>112</v>
+      <c r="F50" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
-        <v>113</v>
+      <c r="F51" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
-        <v>114</v>
+      <c r="F52" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
-        <v>115</v>
+      <c r="F53" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
-        <v>116</v>
+      <c r="F54" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
-        <v>117</v>
+      <c r="F55" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
-        <v>118</v>
+      <c r="F56" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
-        <v>119</v>
+      <c r="F57" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
-        <v>120</v>
+      <c r="F58" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
-        <v>121</v>
+      <c r="F59" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
-        <v>122</v>
+      <c r="F60" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
-        <v>123</v>
+      <c r="F61" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1336,230 +1372,230 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
       <c r="O1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S1" t="s">
-        <v>131</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
       <c r="U1" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="V1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="X1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Z1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AA1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AC1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AD1" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="AE1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AF1" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="AG1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AH1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="O2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="R2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="S2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="T2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="U2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="V2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="W2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="X2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Y2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Z2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AA2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AB2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AC2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AD2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AE2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AF2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AG2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AH2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
       <c r="H3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="V3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1577,44 +1613,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1632,16 +1668,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2">
@@ -1674,819 +1710,819 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
         <v>196</v>
-      </c>
-      <c r="C1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F14" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E25" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E27" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E29" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F30" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E31" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" t="s">
         <v>205</v>
       </c>
-      <c r="B32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" t="s">
-        <v>198</v>
-      </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D33" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F33" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E34" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F34" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F35" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F36" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F37" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F38" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D39" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E39" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F39" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2505,16 +2541,16 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
@@ -2522,135 +2558,135 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2668,30 +2704,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/demo/TestResults.xlsx
+++ b/demo/TestResults.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="248">
   <si>
     <t>SCIENCE</t>
   </si>
@@ -71,333 +71,459 @@
     <t>BIOL2053</t>
   </si>
   <si>
+    <t>CHE2506</t>
+  </si>
+  <si>
+    <t>ECE2213</t>
+  </si>
+  <si>
+    <t>ECE3312</t>
+  </si>
+  <si>
+    <t>ADM3415</t>
+  </si>
+  <si>
+    <t>MATH2513</t>
+  </si>
+  <si>
+    <t>HIST3975</t>
+  </si>
+  <si>
+    <t>CE3963</t>
+  </si>
+  <si>
+    <t>GEOL1044</t>
+  </si>
+  <si>
     <t>ECE4633</t>
   </si>
   <si>
-    <t>ECE2213</t>
-  </si>
-  <si>
-    <t>ECE3312</t>
-  </si>
-  <si>
-    <t>ADM3415</t>
-  </si>
-  <si>
-    <t>MATH2513</t>
-  </si>
-  <si>
-    <t>HIST3975</t>
-  </si>
-  <si>
-    <t>CE3963</t>
-  </si>
-  <si>
-    <t>GEOL1044</t>
+    <t>ECE3031</t>
+  </si>
+  <si>
+    <t>ECE3122</t>
+  </si>
+  <si>
+    <t>ADM1113</t>
+  </si>
+  <si>
+    <t>MATH3503</t>
+  </si>
+  <si>
+    <t>STS1003</t>
+  </si>
+  <si>
+    <t>ENGG4013</t>
+  </si>
+  <si>
+    <t>BIOL1001</t>
+  </si>
+  <si>
+    <t>APSC1082</t>
+  </si>
+  <si>
+    <t>ECE2412</t>
+  </si>
+  <si>
+    <t>MATH1503</t>
+  </si>
+  <si>
+    <t>SOCI2534</t>
+  </si>
+  <si>
+    <t>ENGG1015</t>
+  </si>
+  <si>
+    <t>BIOL1017</t>
+  </si>
+  <si>
+    <t>APSC1085</t>
+  </si>
+  <si>
+    <t>ECE1813</t>
+  </si>
+  <si>
+    <t>ECE4040</t>
+  </si>
+  <si>
+    <t>HIST3414</t>
+  </si>
+  <si>
+    <t>STAT2593</t>
+  </si>
+  <si>
+    <t>SOCI2533</t>
+  </si>
+  <si>
+    <t>ENGG1003</t>
+  </si>
+  <si>
+    <t>BIOL1012</t>
+  </si>
+  <si>
+    <t>APSC1081</t>
+  </si>
+  <si>
+    <t>ECE3232</t>
+  </si>
+  <si>
+    <t>SE1001</t>
+  </si>
+  <si>
+    <t>MATH1003</t>
+  </si>
+  <si>
+    <t>ENGG1082</t>
+  </si>
+  <si>
+    <t>BIOL1622</t>
   </si>
   <si>
     <t>ECE3832</t>
   </si>
   <si>
-    <t>ECE3031</t>
-  </si>
-  <si>
-    <t>ECE3122</t>
-  </si>
-  <si>
-    <t>ADM1113</t>
-  </si>
-  <si>
-    <t>MATH3503</t>
-  </si>
-  <si>
-    <t>STS1003</t>
-  </si>
-  <si>
-    <t>ENGG4013</t>
-  </si>
-  <si>
-    <t>BIOL1001</t>
+    <t>ECE2711</t>
+  </si>
+  <si>
+    <t>ECE3511</t>
+  </si>
+  <si>
+    <t>RUSS1013</t>
+  </si>
+  <si>
+    <t>BIOL1621</t>
+  </si>
+  <si>
+    <t>ECE4523</t>
+  </si>
+  <si>
+    <t>ECE2722</t>
+  </si>
+  <si>
+    <t>ECE3612</t>
+  </si>
+  <si>
+    <t>TME3113</t>
+  </si>
+  <si>
+    <t>GEOL1063</t>
+  </si>
+  <si>
+    <t>ECE4643</t>
+  </si>
+  <si>
+    <t>ECE3221</t>
+  </si>
+  <si>
+    <t>ECON1023</t>
+  </si>
+  <si>
+    <t>CHEM1072</t>
+  </si>
+  <si>
+    <t>ESCI1001</t>
+  </si>
+  <si>
+    <t>ADM2213</t>
+  </si>
+  <si>
+    <t>APSC3953</t>
+  </si>
+  <si>
+    <t>CS1083</t>
+  </si>
+  <si>
+    <t>APSC1013</t>
+  </si>
+  <si>
+    <t>JPNS1013</t>
+  </si>
+  <si>
+    <t>BIOL2033</t>
+  </si>
+  <si>
+    <t>BIOL1105</t>
+  </si>
+  <si>
+    <t>ECE3111</t>
+  </si>
+  <si>
+    <t>RCLP1042</t>
+  </si>
+  <si>
+    <t>BIOL2792</t>
+  </si>
+  <si>
+    <t>ECE4333</t>
+  </si>
+  <si>
+    <t>APSC1023</t>
+  </si>
+  <si>
+    <t>CLAS3053</t>
+  </si>
+  <si>
+    <t>CHEM1077</t>
+  </si>
+  <si>
+    <t>ECE3242</t>
+  </si>
+  <si>
+    <t>PHIL1101</t>
+  </si>
+  <si>
+    <t>GEOL1074</t>
+  </si>
+  <si>
+    <t>FNAT2113</t>
+  </si>
+  <si>
+    <t>CS1023</t>
+  </si>
+  <si>
+    <t>SOCI1523</t>
+  </si>
+  <si>
+    <t>BIOL2043</t>
+  </si>
+  <si>
+    <t>CS1073</t>
+  </si>
+  <si>
+    <t>SOCI1001</t>
+  </si>
+  <si>
+    <t>PHYS5993</t>
+  </si>
+  <si>
+    <t>MATH3213</t>
+  </si>
+  <si>
+    <t>TME3213</t>
+  </si>
+  <si>
+    <t>HUM1401</t>
+  </si>
+  <si>
+    <t>GEOL1001</t>
+  </si>
+  <si>
+    <t>AESL1011</t>
+  </si>
+  <si>
+    <t>POLS1203</t>
+  </si>
+  <si>
+    <t>CHEM1982</t>
+  </si>
+  <si>
+    <t>MATH0863</t>
+  </si>
+  <si>
+    <t>POLS1201</t>
+  </si>
+  <si>
+    <t>APSC2023</t>
+  </si>
+  <si>
+    <t>ADM1213</t>
+  </si>
+  <si>
+    <t>POLS1603</t>
+  </si>
+  <si>
+    <t>CHEM1987</t>
+  </si>
+  <si>
+    <t>ECE3812</t>
+  </si>
+  <si>
+    <t>PHIL1053</t>
+  </si>
+  <si>
+    <t>APSC2028</t>
+  </si>
+  <si>
+    <t>CHEM1001</t>
+  </si>
+  <si>
+    <t>SPAN1203</t>
+  </si>
+  <si>
+    <t>BIOL2753</t>
+  </si>
+  <si>
+    <t>CS2033</t>
+  </si>
+  <si>
+    <t>CHEM2401</t>
+  </si>
+  <si>
+    <t>ADM3123</t>
+  </si>
+  <si>
+    <t>ADM2313</t>
+  </si>
+  <si>
+    <t>CHEM1041</t>
+  </si>
+  <si>
+    <t>EE4923</t>
+  </si>
+  <si>
+    <t>FR1304</t>
+  </si>
+  <si>
+    <t>CHEM1046</t>
   </si>
   <si>
     <t>ECE4273</t>
   </si>
   <si>
-    <t>ECE2412</t>
-  </si>
-  <si>
-    <t>MATH1503</t>
-  </si>
-  <si>
-    <t>SOCI2534</t>
-  </si>
-  <si>
-    <t>ENGG1015</t>
-  </si>
-  <si>
-    <t>BIOL1017</t>
-  </si>
-  <si>
-    <t>ECE4323</t>
-  </si>
-  <si>
-    <t>ECE1813</t>
-  </si>
-  <si>
-    <t>ECE4040</t>
-  </si>
-  <si>
-    <t>HIST3414</t>
-  </si>
-  <si>
-    <t>STAT2593</t>
-  </si>
-  <si>
-    <t>SOCI2533</t>
-  </si>
-  <si>
-    <t>ENGG1003</t>
-  </si>
-  <si>
-    <t>BIOL1012</t>
+    <t>SEP1001</t>
+  </si>
+  <si>
+    <t>PHYS1061</t>
+  </si>
+  <si>
+    <t>PSYC1003</t>
+  </si>
+  <si>
+    <t>ECE4833</t>
+  </si>
+  <si>
+    <t>SOCI1503</t>
+  </si>
+  <si>
+    <t>HIST3045</t>
+  </si>
+  <si>
+    <t>ECON1073</t>
+  </si>
+  <si>
+    <t>CHE5264</t>
+  </si>
+  <si>
+    <t>CLAS1403</t>
+  </si>
+  <si>
+    <t>ME5393</t>
+  </si>
+  <si>
+    <t>SOCI1583</t>
+  </si>
+  <si>
+    <t>ADM1313</t>
+  </si>
+  <si>
+    <t>TME1001</t>
   </si>
   <si>
     <t>MATH3243</t>
   </si>
   <si>
-    <t>ECE3232</t>
-  </si>
-  <si>
-    <t>SE1001</t>
-  </si>
-  <si>
-    <t>MATH1003</t>
-  </si>
-  <si>
-    <t>ENGG1082</t>
-  </si>
-  <si>
-    <t>BIOL1622</t>
+    <t>GER1001</t>
+  </si>
+  <si>
+    <t>ENGG1013</t>
+  </si>
+  <si>
+    <t>POLS1301</t>
+  </si>
+  <si>
+    <t>MATH1863</t>
+  </si>
+  <si>
+    <t>CE3403</t>
+  </si>
+  <si>
+    <t>ADM4437</t>
+  </si>
+  <si>
+    <t>ECE4531</t>
+  </si>
+  <si>
+    <t>TME3313</t>
+  </si>
+  <si>
+    <t>ECE4133</t>
+  </si>
+  <si>
+    <t>CLAS1413</t>
+  </si>
+  <si>
+    <t>ECE4251</t>
+  </si>
+  <si>
+    <t>ADM2413</t>
+  </si>
+  <si>
+    <t>PHYS1081</t>
+  </si>
+  <si>
+    <t>PSYC1023</t>
+  </si>
+  <si>
+    <t>CS3853</t>
+  </si>
+  <si>
+    <t>GER4023</t>
+  </si>
+  <si>
+    <t>MATH3373</t>
+  </si>
+  <si>
+    <t>ENGG1001</t>
+  </si>
+  <si>
+    <t>HIST1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANTH1303</t>
+  </si>
+  <si>
+    <t>ADM2223</t>
+  </si>
+  <si>
+    <t>ECE4261</t>
   </si>
   <si>
     <t>ECE4823</t>
   </si>
   <si>
-    <t>ECE2711</t>
-  </si>
-  <si>
-    <t>ECE3511</t>
-  </si>
-  <si>
-    <t>RUSS1013</t>
-  </si>
-  <si>
-    <t>BIOL1621</t>
+    <t>ADM3155</t>
   </si>
   <si>
     <t>ESL1302</t>
   </si>
   <si>
-    <t>ECE2722</t>
-  </si>
-  <si>
-    <t>ECE3612</t>
-  </si>
-  <si>
-    <t>TME3113</t>
-  </si>
-  <si>
-    <t>GEOL1063</t>
-  </si>
-  <si>
     <t>ESL1303</t>
   </si>
   <si>
-    <t>ECE3221</t>
-  </si>
-  <si>
-    <t>ECON1023</t>
-  </si>
-  <si>
-    <t>CHEM1072</t>
+    <t>ADM3315</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APSC1013</t>
+  </si>
+  <si>
+    <t>ECON1013</t>
   </si>
   <si>
     <t>ESL1301</t>
   </si>
   <si>
-    <t>ADM2213</t>
-  </si>
-  <si>
-    <t>APSC3953</t>
-  </si>
-  <si>
-    <t>APSC1013</t>
-  </si>
-  <si>
-    <t>JPNS1013</t>
-  </si>
-  <si>
-    <t>BIOL2033</t>
-  </si>
-  <si>
-    <t>ECE3111</t>
-  </si>
-  <si>
-    <t>RCLP1042</t>
-  </si>
-  <si>
-    <t>BIOL2792</t>
-  </si>
-  <si>
-    <t>APSC1023</t>
-  </si>
-  <si>
-    <t>CLAS3053</t>
-  </si>
-  <si>
-    <t>CHEM1077</t>
-  </si>
-  <si>
-    <t>PHIL1101</t>
-  </si>
-  <si>
-    <t>GEOL1074</t>
-  </si>
-  <si>
-    <t>CS1023</t>
-  </si>
-  <si>
-    <t>SOCI1523</t>
-  </si>
-  <si>
-    <t>BIOL2043</t>
-  </si>
-  <si>
-    <t>SOCI1001</t>
-  </si>
-  <si>
-    <t>PHYS5993</t>
-  </si>
-  <si>
-    <t>TME3213</t>
-  </si>
-  <si>
-    <t>HUM1401</t>
-  </si>
-  <si>
-    <t>GEOL1001</t>
-  </si>
-  <si>
-    <t>POLS1203</t>
-  </si>
-  <si>
-    <t>CHEM1982</t>
-  </si>
-  <si>
-    <t>POLS1201</t>
-  </si>
-  <si>
-    <t>APSC2023</t>
-  </si>
-  <si>
-    <t>POLS1603</t>
-  </si>
-  <si>
-    <t>CHEM1987</t>
-  </si>
-  <si>
-    <t>PHIL1053</t>
-  </si>
-  <si>
-    <t>APSC2028</t>
-  </si>
-  <si>
-    <t>SPAN1203</t>
-  </si>
-  <si>
-    <t>BIOL2753</t>
-  </si>
-  <si>
-    <t>CHEM2401</t>
-  </si>
-  <si>
-    <t>ADM2313</t>
-  </si>
-  <si>
-    <t>CHEM1041</t>
-  </si>
-  <si>
-    <t>FR1304</t>
-  </si>
-  <si>
-    <t>CHEM1046</t>
-  </si>
-  <si>
-    <t>SEP1001</t>
-  </si>
-  <si>
-    <t>PSYC1003</t>
-  </si>
-  <si>
-    <t>SOCI1503</t>
-  </si>
-  <si>
-    <t>ECON1073</t>
-  </si>
-  <si>
-    <t>CLAS1403</t>
-  </si>
-  <si>
-    <t>SOCI1583</t>
-  </si>
-  <si>
-    <t>TME1001</t>
-  </si>
-  <si>
-    <t>GER1001</t>
-  </si>
-  <si>
-    <t>POLS1301</t>
-  </si>
-  <si>
-    <t>ADM4437</t>
-  </si>
-  <si>
-    <t>TME3313</t>
-  </si>
-  <si>
-    <t>CLAS1413</t>
-  </si>
-  <si>
-    <t>ADM2413</t>
-  </si>
-  <si>
-    <t>PSYC1023</t>
-  </si>
-  <si>
-    <t>GER4023</t>
-  </si>
-  <si>
-    <t>HIST1001</t>
-  </si>
-  <si>
-    <t>ADM2223</t>
-  </si>
-  <si>
-    <t>ADM3155</t>
-  </si>
-  <si>
-    <t>ADM3315</t>
-  </si>
-  <si>
-    <t>ECON1013</t>
-  </si>
-  <si>
     <t>CLAS1503</t>
   </si>
   <si>
+    <t>HIST1815</t>
+  </si>
+  <si>
     <t>ADM1015</t>
   </si>
   <si>
+    <t>MATH3543</t>
+  </si>
+  <si>
     <t>TME5025</t>
   </si>
   <si>
@@ -425,42 +551,18 @@
     <t>TME3013</t>
   </si>
   <si>
-    <t>ECE4523</t>
-  </si>
-  <si>
-    <t>ECE4643</t>
-  </si>
-  <si>
     <t>ECECOOP</t>
   </si>
   <si>
     <t>ECE2701</t>
   </si>
   <si>
-    <t>ECE4833</t>
-  </si>
-  <si>
-    <t>ECE4531</t>
-  </si>
-  <si>
-    <t>ECE4133</t>
-  </si>
-  <si>
     <t>ECE4913</t>
   </si>
   <si>
     <t>ECE4433</t>
   </si>
   <si>
-    <t>ECE3242</t>
-  </si>
-  <si>
-    <t>ECE4251</t>
-  </si>
-  <si>
-    <t>ECE3812</t>
-  </si>
-  <si>
     <t>EE3511</t>
   </si>
   <si>
@@ -638,10 +740,28 @@
     <t>2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>1</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -970,47 +1090,59 @@
       <c r="A12" t="s">
         <v>69</v>
       </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
       <c r="C12" t="s">
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
         <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
@@ -1019,26 +1151,32 @@
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
         <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -1047,184 +1185,241 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
       </c>
       <c r="E20" t="s">
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
       </c>
       <c r="E23" t="s">
         <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
         <v>98</v>
       </c>
-      <c r="E24" t="s">
-        <v>90</v>
-      </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
       </c>
       <c r="E25" t="s">
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
       </c>
       <c r="E26" t="s">
         <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="s">
-        <v>94</v>
-      </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
       <c r="E29" t="s">
         <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
       <c r="E31" t="s">
         <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
       <c r="E32" t="s">
         <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
       <c r="E33" t="s">
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35">
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
       <c r="E35" t="s">
         <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36">
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
       <c r="E36" t="s">
         <v>50</v>
       </c>
@@ -1233,128 +1428,179 @@
       </c>
     </row>
     <row r="37">
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38">
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
       <c r="F38" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39">
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40">
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41">
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
       <c r="F41" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42">
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43">
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
       <c r="F43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44">
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45">
+      <c r="B45" t="s">
+        <v>153</v>
+      </c>
       <c r="F45" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46">
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
       <c r="F46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47">
+      <c r="B47" t="s">
+        <v>156</v>
+      </c>
       <c r="F47" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48">
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
       <c r="F48" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49">
+      <c r="B49" t="s">
+        <v>159</v>
+      </c>
       <c r="F49" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50">
+      <c r="B50" t="s">
+        <v>161</v>
+      </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
       <c r="F51" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52">
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
       <c r="F52" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53">
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1375,10 +1621,10 @@
         <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
@@ -1387,13 +1633,13 @@
         <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
         <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="I1" t="s">
         <v>40</v>
@@ -1402,19 +1648,19 @@
         <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="L1" t="s">
         <v>48</v>
       </c>
       <c r="M1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N1" t="s">
         <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P1" t="s">
         <v>18</v>
@@ -1426,176 +1672,176 @@
         <v>140</v>
       </c>
       <c r="S1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T1" t="s">
         <v>23</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="V1" t="s">
         <v>54</v>
       </c>
       <c r="W1" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="X1" t="s">
         <v>11</v>
       </c>
       <c r="Y1" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="Z1" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AA1" t="s">
         <v>64</v>
       </c>
       <c r="AB1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AC1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD1" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="AE1" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AF1" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="AG1" t="s">
         <v>26</v>
       </c>
       <c r="AH1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="L2" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="M2" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="N2" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="O2" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="Q2" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="R2" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="S2" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="T2" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="U2" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="V2" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="W2" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="X2" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="Y2" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="Z2" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="AA2" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="AB2" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="AC2" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AD2" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="AE2" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="AF2" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="AG2" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="AH2" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3">
       <c r="H3" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="J3" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="O3" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="V3" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1613,44 +1859,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="C1" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1668,16 +1914,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2">
@@ -1701,7 +1947,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1710,819 +1956,2199 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="F7" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="F9" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="F11" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="F12" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="F13" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="E14" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="F14" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="F15" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="F16" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="E18" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="F18" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="F28" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E29" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D31" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="F33" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E34" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="F34" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="F38" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="F40" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D41" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="F41" t="s">
-        <v>207</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" t="s">
+        <v>242</v>
+      </c>
+      <c r="E43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47" t="s">
+        <v>238</v>
+      </c>
+      <c r="F47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" t="s">
+        <v>243</v>
+      </c>
+      <c r="F48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" t="s">
+        <v>240</v>
+      </c>
+      <c r="F50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" t="s">
+        <v>240</v>
+      </c>
+      <c r="E51" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" t="s">
+        <v>240</v>
+      </c>
+      <c r="F54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" t="s">
+        <v>238</v>
+      </c>
+      <c r="F57" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>238</v>
+      </c>
+      <c r="C62" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" t="s">
+        <v>240</v>
+      </c>
+      <c r="F62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" t="s">
+        <v>239</v>
+      </c>
+      <c r="F63" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64" t="s">
+        <v>240</v>
+      </c>
+      <c r="F64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" t="s">
+        <v>238</v>
+      </c>
+      <c r="E65" t="s">
+        <v>238</v>
+      </c>
+      <c r="F65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" t="s">
+        <v>240</v>
+      </c>
+      <c r="F66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" t="s">
+        <v>238</v>
+      </c>
+      <c r="E67" t="s">
+        <v>238</v>
+      </c>
+      <c r="F67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" t="s">
+        <v>239</v>
+      </c>
+      <c r="D68" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68" t="s">
+        <v>240</v>
+      </c>
+      <c r="F68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" t="s">
+        <v>238</v>
+      </c>
+      <c r="F69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" t="s">
+        <v>238</v>
+      </c>
+      <c r="E71" t="s">
+        <v>238</v>
+      </c>
+      <c r="F71" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" t="s">
+        <v>238</v>
+      </c>
+      <c r="E72" t="s">
+        <v>238</v>
+      </c>
+      <c r="F72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" t="s">
+        <v>238</v>
+      </c>
+      <c r="F73" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" t="s">
+        <v>238</v>
+      </c>
+      <c r="E74" t="s">
+        <v>239</v>
+      </c>
+      <c r="F74" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" t="s">
+        <v>238</v>
+      </c>
+      <c r="F75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" t="s">
+        <v>240</v>
+      </c>
+      <c r="E76" t="s">
+        <v>238</v>
+      </c>
+      <c r="F76" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" t="s">
+        <v>239</v>
+      </c>
+      <c r="F77" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" t="s">
+        <v>238</v>
+      </c>
+      <c r="F78" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" t="s">
+        <v>238</v>
+      </c>
+      <c r="E79" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" t="s">
+        <v>238</v>
+      </c>
+      <c r="E80" t="s">
+        <v>238</v>
+      </c>
+      <c r="F80" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" t="s">
+        <v>238</v>
+      </c>
+      <c r="F81" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" t="s">
+        <v>238</v>
+      </c>
+      <c r="D82" t="s">
+        <v>239</v>
+      </c>
+      <c r="E82" t="s">
+        <v>240</v>
+      </c>
+      <c r="F82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" t="s">
+        <v>240</v>
+      </c>
+      <c r="F83" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" t="s">
+        <v>238</v>
+      </c>
+      <c r="F84" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" t="s">
+        <v>238</v>
+      </c>
+      <c r="C85" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" t="s">
+        <v>238</v>
+      </c>
+      <c r="E85" t="s">
+        <v>240</v>
+      </c>
+      <c r="F85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" t="s">
+        <v>238</v>
+      </c>
+      <c r="E86" t="s">
+        <v>238</v>
+      </c>
+      <c r="F86" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" t="s">
+        <v>238</v>
+      </c>
+      <c r="C87" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" t="s">
+        <v>238</v>
+      </c>
+      <c r="E87" t="s">
+        <v>240</v>
+      </c>
+      <c r="F87" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" t="s">
+        <v>240</v>
+      </c>
+      <c r="E88" t="s">
+        <v>240</v>
+      </c>
+      <c r="F88" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" t="s">
+        <v>238</v>
+      </c>
+      <c r="E89" t="s">
+        <v>240</v>
+      </c>
+      <c r="F89" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" t="s">
+        <v>238</v>
+      </c>
+      <c r="C90" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" t="s">
+        <v>238</v>
+      </c>
+      <c r="E90" t="s">
+        <v>238</v>
+      </c>
+      <c r="F90" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" t="s">
+        <v>238</v>
+      </c>
+      <c r="D91" t="s">
+        <v>238</v>
+      </c>
+      <c r="E91" t="s">
+        <v>240</v>
+      </c>
+      <c r="F91" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" t="s">
+        <v>240</v>
+      </c>
+      <c r="C92" t="s">
+        <v>238</v>
+      </c>
+      <c r="D92" t="s">
+        <v>238</v>
+      </c>
+      <c r="E92" t="s">
+        <v>240</v>
+      </c>
+      <c r="F92" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" t="s">
+        <v>238</v>
+      </c>
+      <c r="D93" t="s">
+        <v>238</v>
+      </c>
+      <c r="E93" t="s">
+        <v>240</v>
+      </c>
+      <c r="F93" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" t="s">
+        <v>238</v>
+      </c>
+      <c r="D94" t="s">
+        <v>238</v>
+      </c>
+      <c r="E94" t="s">
+        <v>240</v>
+      </c>
+      <c r="F94" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>67</v>
+      </c>
+      <c r="B95" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" t="s">
+        <v>238</v>
+      </c>
+      <c r="D95" t="s">
+        <v>238</v>
+      </c>
+      <c r="E95" t="s">
+        <v>238</v>
+      </c>
+      <c r="F95" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" t="s">
+        <v>238</v>
+      </c>
+      <c r="E96" t="s">
+        <v>240</v>
+      </c>
+      <c r="F96" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" t="s">
+        <v>238</v>
+      </c>
+      <c r="D97" t="s">
+        <v>238</v>
+      </c>
+      <c r="E97" t="s">
+        <v>240</v>
+      </c>
+      <c r="F97" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" t="s">
+        <v>238</v>
+      </c>
+      <c r="C98" t="s">
+        <v>238</v>
+      </c>
+      <c r="D98" t="s">
+        <v>240</v>
+      </c>
+      <c r="E98" t="s">
+        <v>238</v>
+      </c>
+      <c r="F98" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" t="s">
+        <v>238</v>
+      </c>
+      <c r="C99" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99" t="s">
+        <v>238</v>
+      </c>
+      <c r="E99" t="s">
+        <v>240</v>
+      </c>
+      <c r="F99" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100" t="s">
+        <v>238</v>
+      </c>
+      <c r="C100" t="s">
+        <v>238</v>
+      </c>
+      <c r="D100" t="s">
+        <v>240</v>
+      </c>
+      <c r="E100" t="s">
+        <v>238</v>
+      </c>
+      <c r="F100" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" t="s">
+        <v>238</v>
+      </c>
+      <c r="C101" t="s">
+        <v>238</v>
+      </c>
+      <c r="D101" t="s">
+        <v>238</v>
+      </c>
+      <c r="E101" t="s">
+        <v>240</v>
+      </c>
+      <c r="F101" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" t="s">
+        <v>238</v>
+      </c>
+      <c r="E102" t="s">
+        <v>238</v>
+      </c>
+      <c r="F102" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103" t="s">
+        <v>238</v>
+      </c>
+      <c r="E103" t="s">
+        <v>238</v>
+      </c>
+      <c r="F103" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" t="s">
+        <v>240</v>
+      </c>
+      <c r="D104" t="s">
+        <v>240</v>
+      </c>
+      <c r="E104" t="s">
+        <v>238</v>
+      </c>
+      <c r="F104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105" t="s">
+        <v>238</v>
+      </c>
+      <c r="D105" t="s">
+        <v>238</v>
+      </c>
+      <c r="E105" t="s">
+        <v>240</v>
+      </c>
+      <c r="F105" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" t="s">
+        <v>238</v>
+      </c>
+      <c r="C106" t="s">
+        <v>238</v>
+      </c>
+      <c r="D106" t="s">
+        <v>240</v>
+      </c>
+      <c r="E106" t="s">
+        <v>238</v>
+      </c>
+      <c r="F106" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C107" t="s">
+        <v>238</v>
+      </c>
+      <c r="D107" t="s">
+        <v>240</v>
+      </c>
+      <c r="E107" t="s">
+        <v>238</v>
+      </c>
+      <c r="F107" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" t="s">
+        <v>238</v>
+      </c>
+      <c r="D108" t="s">
+        <v>240</v>
+      </c>
+      <c r="E108" t="s">
+        <v>238</v>
+      </c>
+      <c r="F108" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" t="s">
+        <v>238</v>
+      </c>
+      <c r="D109" t="s">
+        <v>238</v>
+      </c>
+      <c r="E109" t="s">
+        <v>240</v>
+      </c>
+      <c r="F109" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>82</v>
+      </c>
+      <c r="B110" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" t="s">
+        <v>238</v>
+      </c>
+      <c r="D110" t="s">
+        <v>238</v>
+      </c>
+      <c r="E110" t="s">
+        <v>238</v>
+      </c>
+      <c r="F110" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2541,16 +4167,16 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -2558,16 +4184,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
@@ -2575,16 +4201,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
@@ -2592,16 +4218,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
@@ -2609,16 +4235,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6">
@@ -2626,16 +4252,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7">
@@ -2643,16 +4269,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8">
@@ -2660,16 +4286,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9">
@@ -2677,16 +4303,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2704,30 +4330,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
